--- a/업종정보.xlsx
+++ b/업종정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\green - 1차 프로젝트\웹 페이지 그림 - prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5025A-2F77-4564-A9F2-A3817AC25D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77BAE8D-815E-48E8-AED5-1A1DFC83E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25740" yWindow="1095" windowWidth="12105" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,98 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의료(진료과목별)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산부인과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정형외과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이비인후과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소아과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성형외과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임상병리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한의원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응급구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리치료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가정의학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신경외과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장항문과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비뇨기과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신경정신과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재활의학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상의학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제조/화학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,6 +401,46 @@
   </si>
   <si>
     <t>식별 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원(병원종류별)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검진센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국공립병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한방병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -753,19 +701,6 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="1"/>
       </top>
@@ -872,48 +807,9 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
@@ -934,61 +830,398 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -997,78 +1230,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,10 +1254,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1386,1389 +1616,1194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>114</v>
+      <c r="C1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="31" t="str">
+      <c r="C3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="41" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E3" s="28" t="str">
+      <c r="E3" s="30" t="str">
         <f>$C$3 &amp; "_" &amp; D3</f>
         <v>SEV_A</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="32" t="str">
+      <c r="C4" s="14"/>
+      <c r="D4" s="42" t="str">
         <f t="shared" ref="D4:D11" si="0">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E4" s="29" t="str">
+      <c r="E4" s="31" t="str">
         <f t="shared" ref="E4:E11" si="1">$C$3 &amp; "_" &amp; D4</f>
         <v>SEV_B</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="32" t="str">
+      <c r="C5" s="14"/>
+      <c r="D5" s="42" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="31" t="str">
         <f t="shared" si="1"/>
         <v>SEV_C</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="32" t="str">
+      <c r="C6" s="14"/>
+      <c r="D6" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E6" s="29" t="str">
+      <c r="E6" s="31" t="str">
         <f t="shared" si="1"/>
         <v>SEV_D</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="32" t="str">
+      <c r="C7" s="14"/>
+      <c r="D7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="E7" s="29" t="str">
+      <c r="E7" s="31" t="str">
         <f t="shared" si="1"/>
         <v>SEV_E</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="32" t="str">
+      <c r="C8" s="14"/>
+      <c r="D8" s="42" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E8" s="29" t="str">
+      <c r="E8" s="31" t="str">
         <f t="shared" si="1"/>
         <v>SEV_F</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="32" t="str">
+      <c r="C9" s="14"/>
+      <c r="D9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>G</v>
       </c>
-      <c r="E9" s="29" t="str">
+      <c r="E9" s="31" t="str">
         <f t="shared" si="1"/>
         <v>SEV_G</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="32" t="str">
+      <c r="C10" s="14"/>
+      <c r="D10" s="42" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="E10" s="29" t="str">
+      <c r="E10" s="31" t="str">
         <f t="shared" si="1"/>
         <v>SEV_H</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="33" t="str">
+      <c r="C11" s="14"/>
+      <c r="D11" s="44" t="str">
         <f t="shared" si="0"/>
         <v>I</v>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="E11" s="34" t="str">
         <f t="shared" si="1"/>
         <v>SEV_I</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="35" t="str">
+      <c r="A12" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="41" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E12" s="34" t="str">
+      <c r="E12" s="47" t="str">
         <f>$C$12 &amp; "_" &amp; D12</f>
         <v>MED_A</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="32" t="str">
-        <f t="shared" ref="D13:D33" si="2">CHAR(ROW(A66))</f>
+      <c r="A13" s="19"/>
+      <c r="B13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="42" t="str">
+        <f t="shared" ref="D13:D20" si="2">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E13" s="29" t="str">
-        <f t="shared" ref="E13:E33" si="3">$C$12 &amp; "_" &amp; D13</f>
+      <c r="E13" s="55" t="str">
+        <f t="shared" ref="E13:E20" si="3">$C$12 &amp; "_" &amp; D13</f>
         <v>MED_B</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="32" t="str">
+      <c r="A14" s="19"/>
+      <c r="B14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="42" t="str">
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="55" t="str">
         <f t="shared" si="3"/>
         <v>MED_C</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="32" t="str">
+      <c r="A15" s="19"/>
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="42" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="55" t="str">
         <f t="shared" si="3"/>
         <v>MED_D</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="32" t="str">
+      <c r="A16" s="19"/>
+      <c r="B16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="42" t="str">
         <f t="shared" si="2"/>
         <v>E</v>
       </c>
-      <c r="E16" s="29" t="str">
+      <c r="E16" s="55" t="str">
         <f t="shared" si="3"/>
         <v>MED_E</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="32" t="str">
+      <c r="A17" s="19"/>
+      <c r="B17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="42" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="55" t="str">
         <f t="shared" si="3"/>
         <v>MED_F</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="32" t="str">
+      <c r="A18" s="19"/>
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="42" t="str">
         <f t="shared" si="2"/>
         <v>G</v>
       </c>
-      <c r="E18" s="29" t="str">
+      <c r="E18" s="55" t="str">
         <f t="shared" si="3"/>
         <v>MED_G</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="32" t="str">
+      <c r="A19" s="19"/>
+      <c r="B19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="42" t="str">
         <f t="shared" si="2"/>
         <v>H</v>
       </c>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="55" t="str">
         <f t="shared" si="3"/>
         <v>MED_H</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="32" t="str">
+    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27"/>
+      <c r="B20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="43" t="str">
         <f t="shared" si="2"/>
         <v>I</v>
       </c>
-      <c r="E20" s="29" t="str">
+      <c r="E20" s="56" t="str">
         <f t="shared" si="3"/>
         <v>MED_I</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>J</v>
-      </c>
-      <c r="E21" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_J</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="29" t="s">
+      <c r="A21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>K</v>
-      </c>
-      <c r="E22" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_K</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>L</v>
-      </c>
-      <c r="E23" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_L</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>M</v>
-      </c>
-      <c r="E24" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_M</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>N</v>
-      </c>
-      <c r="E25" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_N</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>O</v>
-      </c>
-      <c r="E26" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_O</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-      <c r="E27" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_P</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>Q</v>
-      </c>
-      <c r="E28" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_Q</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>R</v>
-      </c>
-      <c r="E29" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_R</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="E30" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_S</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>T</v>
-      </c>
-      <c r="E31" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_T</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>U</v>
-      </c>
-      <c r="E32" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_U</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="38" t="str">
-        <f t="shared" si="2"/>
-        <v>V</v>
-      </c>
-      <c r="E33" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>MED_V</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="31" t="str">
+      <c r="C21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="45" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E34" s="28" t="str">
-        <f>$C$34 &amp; "_" &amp; D34</f>
+      <c r="E21" s="33" t="str">
+        <f>$C$21 &amp; "_" &amp; D21</f>
         <v>MAC_A</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="32" t="str">
-        <f t="shared" ref="D35:D47" si="4">CHAR(ROW(A66))</f>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="42" t="str">
+        <f t="shared" ref="D22:D34" si="4">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E35" s="29" t="str">
-        <f t="shared" ref="E35:E47" si="5">$C$34 &amp; "_" &amp; D35</f>
+      <c r="E22" s="31" t="str">
+        <f t="shared" ref="E22:E34" si="5">$C$21 &amp; "_" &amp; D22</f>
         <v>MAC_B</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="32" t="str">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="42" t="str">
         <f t="shared" si="4"/>
         <v>C</v>
       </c>
-      <c r="E36" s="29" t="str">
+      <c r="E23" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_C</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="32" t="str">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="42" t="str">
         <f t="shared" si="4"/>
         <v>D</v>
       </c>
-      <c r="E37" s="29" t="str">
+      <c r="E24" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_D</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="32" t="str">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="42" t="str">
         <f t="shared" si="4"/>
         <v>E</v>
       </c>
-      <c r="E38" s="29" t="str">
+      <c r="E25" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_E</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="32" t="str">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="42" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="E39" s="29" t="str">
+      <c r="E26" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_F</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="32" t="str">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="42" t="str">
         <f t="shared" si="4"/>
         <v>G</v>
       </c>
-      <c r="E40" s="29" t="str">
+      <c r="E27" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_G</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="32" t="str">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="42" t="str">
         <f t="shared" si="4"/>
         <v>H</v>
       </c>
-      <c r="E41" s="29" t="str">
+      <c r="E28" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_H</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="32" t="str">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="42" t="str">
         <f t="shared" si="4"/>
         <v>I</v>
       </c>
-      <c r="E42" s="29" t="str">
+      <c r="E29" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_I</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="32" t="str">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="42" t="str">
         <f t="shared" si="4"/>
         <v>J</v>
       </c>
-      <c r="E43" s="29" t="str">
+      <c r="E30" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_J</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="32" t="str">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="42" t="str">
         <f t="shared" si="4"/>
         <v>K</v>
       </c>
-      <c r="E44" s="29" t="str">
+      <c r="E31" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_K</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="32" t="str">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="42" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-      <c r="E45" s="29" t="str">
+      <c r="E32" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_L</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="32" t="str">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="42" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="E46" s="29" t="str">
+      <c r="E33" s="31" t="str">
         <f t="shared" si="5"/>
         <v>MAC_M</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
-      <c r="B47" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="33" t="str">
+    <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="44" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="E47" s="30" t="str">
+      <c r="E34" s="34" t="str">
         <f t="shared" si="5"/>
         <v>MAC_N</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="35" t="str">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="41" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E48" s="34" t="str">
-        <f>$C$48 &amp; "_" &amp; D48</f>
+      <c r="E35" s="47" t="str">
+        <f>$C$35 &amp; "_" &amp; D35</f>
         <v>DIS_A</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="32" t="str">
-        <f t="shared" ref="D49:D50" si="6">CHAR(ROW(A66))</f>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="42" t="str">
+        <f t="shared" ref="D36:D37" si="6">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E49" s="29" t="str">
-        <f t="shared" ref="E49:E50" si="7">$C$48 &amp; "_" &amp; D49</f>
+      <c r="E36" s="49" t="str">
+        <f t="shared" ref="E36:E37" si="7">$C$35 &amp; "_" &amp; D36</f>
         <v>DIS_B</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="38" t="str">
+    <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19"/>
+      <c r="B37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="43" t="str">
         <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="E50" s="37" t="str">
+      <c r="E37" s="51" t="str">
         <f t="shared" si="7"/>
         <v>DIS_C</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="31" t="str">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="45" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E51" s="28" t="str">
-        <f>$C$51 &amp; "_" &amp; D51</f>
+      <c r="E38" s="33" t="str">
+        <f>$C$38 &amp; "_" &amp; D38</f>
         <v>SAL_A</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="32" t="str">
-        <f t="shared" ref="D52:D55" si="8">CHAR(ROW(A66))</f>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="42" t="str">
+        <f t="shared" ref="D39:D42" si="8">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E52" s="29" t="str">
-        <f t="shared" ref="E52:E55" si="9">$C$51 &amp; "_" &amp; D52</f>
+      <c r="E39" s="31" t="str">
+        <f t="shared" ref="E39:E42" si="9">$C$38 &amp; "_" &amp; D39</f>
         <v>SAL_B</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="32" t="str">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="42" t="str">
         <f t="shared" si="8"/>
         <v>C</v>
       </c>
-      <c r="E53" s="29" t="str">
+      <c r="E40" s="31" t="str">
         <f t="shared" si="9"/>
         <v>SAL_C</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="32" t="str">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="42" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="E54" s="29" t="str">
+      <c r="E41" s="31" t="str">
         <f t="shared" si="9"/>
         <v>SAL_D</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="18"/>
-      <c r="B55" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="33" t="str">
+    <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="44" t="str">
         <f t="shared" si="8"/>
         <v>E</v>
       </c>
-      <c r="E55" s="30" t="str">
+      <c r="E42" s="34" t="str">
         <f t="shared" si="9"/>
         <v>SAL_E</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="41" t="str">
+        <f>CHAR(ROW(A65))</f>
+        <v>A</v>
+      </c>
+      <c r="E43" s="47" t="str">
+        <f>$C$43 &amp; "_" &amp; D43</f>
+        <v>IWC_A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="42" t="str">
+        <f t="shared" ref="D44:D51" si="10">CHAR(ROW(A66))</f>
+        <v>B</v>
+      </c>
+      <c r="E44" s="49" t="str">
+        <f t="shared" ref="E44:E51" si="11">$C$43 &amp; "_" &amp; D44</f>
+        <v>IWC_B</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="E45" s="49" t="str">
+        <f t="shared" si="11"/>
+        <v>IWC_C</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>D</v>
+      </c>
+      <c r="E46" s="49" t="str">
+        <f t="shared" si="11"/>
+        <v>IWC_D</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="E47" s="49" t="str">
+        <f t="shared" si="11"/>
+        <v>IWC_E</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="53"/>
+      <c r="D48" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+      <c r="E48" s="49" t="str">
+        <f t="shared" si="11"/>
+        <v>IWC_F</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>G</v>
+      </c>
+      <c r="E49" s="49" t="str">
+        <f t="shared" si="11"/>
+        <v>IWC_G</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="42" t="str">
+        <f t="shared" si="10"/>
+        <v>H</v>
+      </c>
+      <c r="E50" s="49" t="str">
+        <f t="shared" si="11"/>
+        <v>IWC_H</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="19"/>
+      <c r="B51" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="43" t="str">
+        <f t="shared" si="10"/>
+        <v>I</v>
+      </c>
+      <c r="E51" s="51" t="str">
+        <f t="shared" si="11"/>
+        <v>IWC_I</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="45" t="str">
+        <f>CHAR(ROW(A65))</f>
+        <v>A</v>
+      </c>
+      <c r="E52" s="33" t="str">
+        <f>$C$52 &amp; "_" &amp; D52</f>
+        <v>CON_A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="42" t="str">
+        <f t="shared" ref="D53:D55" si="12">CHAR(ROW(A66))</f>
+        <v>B</v>
+      </c>
+      <c r="E53" s="31" t="str">
+        <f t="shared" ref="E53:E55" si="13">$C$52 &amp; "_" &amp; D53</f>
+        <v>CON_B</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="42" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="E54" s="31" t="str">
+        <f t="shared" si="13"/>
+        <v>CON_C</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
+      <c r="B55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="44" t="str">
+        <f t="shared" si="12"/>
+        <v>D</v>
+      </c>
+      <c r="E55" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>CON_D</v>
+      </c>
+    </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="35" t="str">
+        <v>52</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="41" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E56" s="34" t="str">
+      <c r="E56" s="47" t="str">
         <f>$C$56 &amp; "_" &amp; D56</f>
-        <v>IWC_A</v>
+        <v>EDU_A</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="32" t="str">
-        <f t="shared" ref="D57:D64" si="10">CHAR(ROW(A66))</f>
+      <c r="A57" s="9"/>
+      <c r="B57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="42" t="str">
+        <f t="shared" ref="D57:D60" si="14">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E57" s="29" t="str">
-        <f t="shared" ref="E57:E64" si="11">$C$56 &amp; "_" &amp; D57</f>
-        <v>IWC_B</v>
+      <c r="E57" s="49" t="str">
+        <f t="shared" ref="E57:E60" si="15">$C$56 &amp; "_" &amp; D57</f>
+        <v>EDU_B</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="32" t="str">
-        <f t="shared" si="10"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="48"/>
+      <c r="D58" s="42" t="str">
+        <f t="shared" si="14"/>
         <v>C</v>
       </c>
-      <c r="E58" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v>IWC_C</v>
+      <c r="E58" s="49" t="str">
+        <f t="shared" si="15"/>
+        <v>EDU_C</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="32" t="str">
-        <f t="shared" si="10"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="42" t="str">
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
-      <c r="E59" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v>IWC_D</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="32" t="str">
-        <f t="shared" si="10"/>
+      <c r="E59" s="49" t="str">
+        <f t="shared" si="15"/>
+        <v>EDU_D</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="50"/>
+      <c r="D60" s="43" t="str">
+        <f t="shared" si="14"/>
         <v>E</v>
       </c>
-      <c r="E60" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v>IWC_E</v>
+      <c r="E60" s="51" t="str">
+        <f t="shared" si="15"/>
+        <v>EDU_E</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
-      <c r="E61" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v>IWC_F</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>G</v>
-      </c>
-      <c r="E62" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v>IWC_G</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v>H</v>
-      </c>
-      <c r="E63" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v>IWC_H</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="11"/>
-      <c r="B64" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="38" t="str">
-        <f t="shared" si="10"/>
-        <v>I</v>
-      </c>
-      <c r="E64" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>IWC_I</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="31" t="str">
+      <c r="A61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="45" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E65" s="28" t="str">
-        <f>$C$65 &amp; "_" &amp; D65</f>
-        <v>CON_A</v>
+      <c r="E61" s="33" t="str">
+        <f>$C$61 &amp; "_" &amp; D61</f>
+        <v>MDG_A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="42" t="str">
+        <f t="shared" ref="D62:D69" si="16">CHAR(ROW(A66))</f>
+        <v>B</v>
+      </c>
+      <c r="E62" s="31" t="str">
+        <f t="shared" ref="E62:E69" si="17">$C$61 &amp; "_" &amp; D62</f>
+        <v>MDG_B</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="42" t="str">
+        <f t="shared" si="16"/>
+        <v>C</v>
+      </c>
+      <c r="E63" s="31" t="str">
+        <f t="shared" si="17"/>
+        <v>MDG_C</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="42" t="str">
+        <f t="shared" si="16"/>
+        <v>D</v>
+      </c>
+      <c r="E64" s="31" t="str">
+        <f t="shared" si="17"/>
+        <v>MDG_D</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="42" t="str">
+        <f t="shared" si="16"/>
+        <v>E</v>
+      </c>
+      <c r="E65" s="31" t="str">
+        <f t="shared" si="17"/>
+        <v>MDG_E</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="32" t="str">
-        <f t="shared" ref="D66:D68" si="12">CHAR(ROW(A66))</f>
-        <v>B</v>
-      </c>
-      <c r="E66" s="29" t="str">
-        <f t="shared" ref="E66:E68" si="13">$C$65 &amp; "_" &amp; D66</f>
-        <v>CON_B</v>
+      <c r="A66" s="9"/>
+      <c r="B66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="42" t="str">
+        <f t="shared" si="16"/>
+        <v>F</v>
+      </c>
+      <c r="E66" s="31" t="str">
+        <f t="shared" si="17"/>
+        <v>MDG_F</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v>C</v>
-      </c>
-      <c r="E67" s="29" t="str">
-        <f t="shared" si="13"/>
-        <v>CON_C</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="18"/>
-      <c r="B68" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
-      <c r="E68" s="30" t="str">
-        <f t="shared" si="13"/>
-        <v>CON_D</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="35" t="str">
+      <c r="A67" s="9"/>
+      <c r="B67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="42" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
+      <c r="E67" s="31" t="str">
+        <f t="shared" si="17"/>
+        <v>MDG_G</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="B68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="42" t="str">
+        <f t="shared" si="16"/>
+        <v>H</v>
+      </c>
+      <c r="E68" s="31" t="str">
+        <f t="shared" si="17"/>
+        <v>MDG_H</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="10"/>
+      <c r="B69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="44" t="str">
+        <f t="shared" si="16"/>
+        <v>I</v>
+      </c>
+      <c r="E69" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>MDG_I</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="41" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E69" s="34" t="str">
-        <f>$C$69 &amp; "_" &amp; D69</f>
-        <v>EDU_A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="32" t="str">
-        <f t="shared" ref="D70:D73" si="14">CHAR(ROW(A66))</f>
+      <c r="E70" s="47" t="str">
+        <f>$C$70 &amp; "_" &amp; D70</f>
+        <v>FBK_A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
+      <c r="B71" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="42" t="str">
+        <f t="shared" ref="D71:D72" si="18">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E70" s="29" t="str">
-        <f t="shared" ref="E70:E73" si="15">$C$69 &amp; "_" &amp; D70</f>
-        <v>EDU_B</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="32" t="str">
-        <f t="shared" si="14"/>
+      <c r="E71" s="49" t="str">
+        <f t="shared" ref="E71:E72" si="19">$C$70 &amp; "_" &amp; D71</f>
+        <v>FBK_B</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="12"/>
+      <c r="B72" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="50"/>
+      <c r="D72" s="43" t="str">
+        <f t="shared" si="18"/>
         <v>C</v>
       </c>
-      <c r="E71" s="29" t="str">
-        <f t="shared" si="15"/>
-        <v>EDU_C</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v>D</v>
-      </c>
-      <c r="E72" s="29" t="str">
-        <f t="shared" si="15"/>
-        <v>EDU_D</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="39"/>
-      <c r="B73" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="38" t="str">
-        <f t="shared" si="14"/>
-        <v>E</v>
-      </c>
-      <c r="E73" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>EDU_E</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="31" t="str">
+      <c r="E72" s="51" t="str">
+        <f t="shared" si="19"/>
+        <v>FBK_C</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="45" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E74" s="28" t="str">
-        <f>$C$74 &amp; "_" &amp; D74</f>
-        <v>MDG_A</v>
+      <c r="E73" s="33" t="str">
+        <f>$C$73 &amp; "_" &amp; D73</f>
+        <v>ASS_A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
+      <c r="B74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="42" t="str">
+        <f t="shared" ref="D74:D77" si="20">CHAR(ROW(A66))</f>
+        <v>B</v>
+      </c>
+      <c r="E74" s="31" t="str">
+        <f t="shared" ref="E74:E77" si="21">$C$73 &amp; "_" &amp; D74</f>
+        <v>ASS_B</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="32" t="str">
-        <f t="shared" ref="D75:D82" si="16">CHAR(ROW(A66))</f>
-        <v>B</v>
-      </c>
-      <c r="E75" s="29" t="str">
-        <f t="shared" ref="E75:E82" si="17">$C$74 &amp; "_" &amp; D75</f>
-        <v>MDG_B</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>C</v>
-      </c>
-      <c r="E76" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>MDG_C</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>D</v>
-      </c>
-      <c r="E77" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>MDG_D</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>E</v>
-      </c>
-      <c r="E78" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>MDG_E</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>F</v>
-      </c>
-      <c r="E79" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>MDG_F</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>G</v>
-      </c>
-      <c r="E80" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>MDG_G</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>H</v>
-      </c>
-      <c r="E81" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v>MDG_H</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>I</v>
-      </c>
-      <c r="E82" s="30" t="str">
-        <f t="shared" si="17"/>
-        <v>MDG_I</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="35" t="str">
-        <f>CHAR(ROW(A65))</f>
-        <v>A</v>
-      </c>
-      <c r="E83" s="34" t="str">
-        <f>$C$83 &amp; "_" &amp; D83</f>
-        <v>FBK_A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="32" t="str">
-        <f t="shared" ref="D84:D85" si="18">CHAR(ROW(A66))</f>
-        <v>B</v>
-      </c>
-      <c r="E84" s="29" t="str">
-        <f t="shared" ref="E84:E85" si="19">$C$83 &amp; "_" &amp; D84</f>
-        <v>FBK_B</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="39"/>
-      <c r="B85" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="38" t="str">
-        <f t="shared" si="18"/>
-        <v>C</v>
-      </c>
-      <c r="E85" s="37" t="str">
-        <f t="shared" si="19"/>
-        <v>FBK_C</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" s="31" t="str">
-        <f>CHAR(ROW(A65))</f>
-        <v>A</v>
-      </c>
-      <c r="E86" s="28" t="str">
-        <f>$C$86 &amp; "_" &amp; D86</f>
-        <v>ASS_A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="32" t="str">
-        <f t="shared" ref="D87:D90" si="20">CHAR(ROW(A66))</f>
-        <v>B</v>
-      </c>
-      <c r="E87" s="29" t="str">
-        <f t="shared" ref="E87:E90" si="21">$C$86 &amp; "_" &amp; D87</f>
-        <v>ASS_B</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="32" t="str">
+      <c r="A75" s="9"/>
+      <c r="B75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="42" t="str">
         <f t="shared" si="20"/>
         <v>C</v>
       </c>
-      <c r="E88" s="29" t="str">
+      <c r="E75" s="31" t="str">
         <f t="shared" si="21"/>
         <v>ASS_C</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="17"/>
-      <c r="B89" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="32" t="str">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="42" t="str">
         <f t="shared" si="20"/>
         <v>D</v>
       </c>
-      <c r="E89" s="29" t="str">
+      <c r="E76" s="31" t="str">
         <f t="shared" si="21"/>
         <v>ASS_D</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="18"/>
-      <c r="B90" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="33" t="str">
+    <row r="77" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="10"/>
+      <c r="B77" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="43" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="E90" s="30" t="str">
+      <c r="E77" s="32" t="str">
         <f t="shared" si="21"/>
         <v>ASS_E</v>
       </c>
@@ -2776,33 +2811,33 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="27">
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A21:A34"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A60"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A77"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C33"/>
-    <mergeCell ref="C34:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A33"/>
-    <mergeCell ref="A34:A47"/>
+    <mergeCell ref="C21:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C43:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="C61:C69"/>
+    <mergeCell ref="C70:C72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/업종정보.xlsx
+++ b/업종정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\green - 1차 프로젝트\웹 페이지 그림 - prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77BAE8D-815E-48E8-AED5-1A1DFC83E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83337935-8A6C-4CA3-8846-CDFBE0AFC8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25740" yWindow="1095" windowWidth="12105" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10515" yWindow="1170" windowWidth="26775" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -507,17 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="1"/>
@@ -737,17 +726,6 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
       <right style="medium">
         <color theme="1"/>
       </right>
@@ -845,15 +823,65 @@
       <top style="medium">
         <color theme="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -864,22 +892,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -888,31 +933,81 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -920,39 +1015,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+        <color theme="1"/>
+      </left>
+      <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -961,43 +1028,24 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+        <color theme="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1006,143 +1054,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,11 +1065,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1167,10 +1088,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1182,61 +1166,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1245,48 +1199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,25 +1211,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1602,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1616,1213 +1513,1201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="41" t="str">
+      <c r="D3" s="8" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E3" s="30" t="str">
-        <f>$C$3 &amp; "_" &amp; D3</f>
-        <v>SEV_A</v>
+      <c r="E3" s="43" t="str">
+        <f>$C$3 &amp; "-" &amp; D3</f>
+        <v>SEV-A</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="42" t="str">
+      <c r="D4" s="9" t="str">
         <f t="shared" ref="D4:D11" si="0">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E4" s="31" t="str">
-        <f t="shared" ref="E4:E11" si="1">$C$3 &amp; "_" &amp; D4</f>
-        <v>SEV_B</v>
+      <c r="E4" s="42" t="str">
+        <f t="shared" ref="E4:E11" si="1">$C$3 &amp; "-" &amp; D4</f>
+        <v>SEV-B</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="42" t="str">
+      <c r="D5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>SEV_C</v>
+        <v>SEV-C</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="42" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>SEV_D</v>
+        <v>SEV-D</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="42" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>SEV_E</v>
+        <v>SEV-E</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="42" t="str">
+      <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>SEV_F</v>
+        <v>SEV-F</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="42" t="str">
+      <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>G</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>SEV_G</v>
+        <v>SEV-G</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="42" t="str">
+      <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>SEV_H</v>
+        <v>SEV-H</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="44" t="str">
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>I</v>
       </c>
-      <c r="E11" s="34" t="str">
+      <c r="E11" s="44" t="str">
         <f t="shared" si="1"/>
-        <v>SEV_I</v>
+        <v>SEV-I</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="23" t="s">
         <v>92</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="41" t="str">
+      <c r="D12" s="12" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E12" s="47" t="str">
-        <f>$C$12 &amp; "_" &amp; D12</f>
-        <v>MED_A</v>
+      <c r="E12" s="42" t="str">
+        <f>$C$12 &amp; "-" &amp; D12</f>
+        <v>MED-A</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="42" t="str">
+      <c r="C13" s="14"/>
+      <c r="D13" s="9" t="str">
         <f t="shared" ref="D13:D20" si="2">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E13" s="55" t="str">
-        <f t="shared" ref="E13:E20" si="3">$C$12 &amp; "_" &amp; D13</f>
-        <v>MED_B</v>
+      <c r="E13" s="42" t="str">
+        <f t="shared" ref="E13:E20" si="3">$C$12 &amp; "-" &amp; D13</f>
+        <v>MED-B</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="42" t="str">
+      <c r="C14" s="14"/>
+      <c r="D14" s="9" t="str">
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="E14" s="55" t="str">
+      <c r="E14" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>MED_C</v>
+        <v>MED-C</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="42" t="str">
+      <c r="C15" s="14"/>
+      <c r="D15" s="9" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="E15" s="55" t="str">
+      <c r="E15" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>MED_D</v>
+        <v>MED-D</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="42" t="str">
+      <c r="C16" s="14"/>
+      <c r="D16" s="9" t="str">
         <f t="shared" si="2"/>
         <v>E</v>
       </c>
-      <c r="E16" s="55" t="str">
+      <c r="E16" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>MED_E</v>
+        <v>MED-E</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="42" t="str">
+      <c r="C17" s="14"/>
+      <c r="D17" s="9" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="E17" s="55" t="str">
+      <c r="E17" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>MED_F</v>
+        <v>MED-F</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="42" t="str">
+      <c r="C18" s="14"/>
+      <c r="D18" s="9" t="str">
         <f t="shared" si="2"/>
         <v>G</v>
       </c>
-      <c r="E18" s="55" t="str">
+      <c r="E18" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>MED_G</v>
+        <v>MED-G</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="42" t="str">
+      <c r="C19" s="14"/>
+      <c r="D19" s="9" t="str">
         <f t="shared" si="2"/>
         <v>H</v>
       </c>
-      <c r="E19" s="55" t="str">
+      <c r="E19" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>MED_H</v>
+        <v>MED-H</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="43" t="str">
+      <c r="C20" s="14"/>
+      <c r="D20" s="11" t="str">
         <f t="shared" si="2"/>
         <v>I</v>
       </c>
-      <c r="E20" s="56" t="str">
+      <c r="E20" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>MED_I</v>
+        <v>MED-I</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="45" t="str">
+      <c r="D21" s="8" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E21" s="33" t="str">
-        <f>$C$21 &amp; "_" &amp; D21</f>
-        <v>MAC_A</v>
+      <c r="E21" s="43" t="str">
+        <f>$C$21 &amp; "-" &amp; D21</f>
+        <v>MAC-A</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="9" t="str">
         <f t="shared" ref="D22:D34" si="4">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E22" s="31" t="str">
-        <f t="shared" ref="E22:E34" si="5">$C$21 &amp; "_" &amp; D22</f>
-        <v>MAC_B</v>
+      <c r="E22" s="42" t="str">
+        <f t="shared" ref="E22:E34" si="5">$C$21 &amp; "-" &amp; D22</f>
+        <v>MAC-B</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="9" t="str">
         <f t="shared" si="4"/>
         <v>C</v>
       </c>
-      <c r="E23" s="31" t="str">
+      <c r="E23" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_C</v>
+        <v>MAC-C</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="42" t="str">
+      <c r="D24" s="9" t="str">
         <f t="shared" si="4"/>
         <v>D</v>
       </c>
-      <c r="E24" s="31" t="str">
+      <c r="E24" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_D</v>
+        <v>MAC-D</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="42" t="str">
+      <c r="D25" s="9" t="str">
         <f t="shared" si="4"/>
         <v>E</v>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="E25" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_E</v>
+        <v>MAC-E</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="42" t="str">
+      <c r="D26" s="9" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="E26" s="31" t="str">
+      <c r="E26" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_F</v>
+        <v>MAC-F</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="42" t="str">
+      <c r="D27" s="9" t="str">
         <f t="shared" si="4"/>
         <v>G</v>
       </c>
-      <c r="E27" s="31" t="str">
+      <c r="E27" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_G</v>
+        <v>MAC-G</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="42" t="str">
+      <c r="D28" s="9" t="str">
         <f t="shared" si="4"/>
         <v>H</v>
       </c>
-      <c r="E28" s="31" t="str">
+      <c r="E28" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_H</v>
+        <v>MAC-H</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="42" t="str">
+      <c r="D29" s="9" t="str">
         <f t="shared" si="4"/>
         <v>I</v>
       </c>
-      <c r="E29" s="31" t="str">
+      <c r="E29" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_I</v>
+        <v>MAC-I</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="42" t="str">
+      <c r="D30" s="9" t="str">
         <f t="shared" si="4"/>
         <v>J</v>
       </c>
-      <c r="E30" s="31" t="str">
+      <c r="E30" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_J</v>
+        <v>MAC-J</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="42" t="str">
+      <c r="D31" s="9" t="str">
         <f t="shared" si="4"/>
         <v>K</v>
       </c>
-      <c r="E31" s="31" t="str">
+      <c r="E31" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_K</v>
+        <v>MAC-K</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="42" t="str">
+      <c r="D32" s="9" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-      <c r="E32" s="31" t="str">
+      <c r="E32" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_L</v>
+        <v>MAC-L</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="14"/>
-      <c r="D33" s="42" t="str">
+      <c r="D33" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="E33" s="31" t="str">
+      <c r="E33" s="42" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_M</v>
+        <v>MAC-M</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="44" t="str">
+      <c r="C34" s="15"/>
+      <c r="D34" s="10" t="str">
         <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="E34" s="34" t="str">
+      <c r="E34" s="44" t="str">
         <f t="shared" si="5"/>
-        <v>MAC_N</v>
+        <v>MAC-N</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="41" t="str">
+      <c r="D35" s="12" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E35" s="47" t="str">
-        <f>$C$35 &amp; "_" &amp; D35</f>
-        <v>DIS_A</v>
+      <c r="E35" s="42" t="str">
+        <f>$C$35 &amp; "-" &amp; D35</f>
+        <v>DIS-A</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="42" t="str">
+      <c r="C36" s="14"/>
+      <c r="D36" s="9" t="str">
         <f t="shared" ref="D36:D37" si="6">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E36" s="49" t="str">
-        <f t="shared" ref="E36:E37" si="7">$C$35 &amp; "_" &amp; D36</f>
-        <v>DIS_B</v>
+      <c r="E36" s="42" t="str">
+        <f t="shared" ref="E36:E37" si="7">$C$35 &amp; "-" &amp; D36</f>
+        <v>DIS-B</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="43" t="str">
+      <c r="C37" s="14"/>
+      <c r="D37" s="11" t="str">
         <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="E37" s="51" t="str">
+      <c r="E37" s="42" t="str">
         <f t="shared" si="7"/>
-        <v>DIS_C</v>
+        <v>DIS-C</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="45" t="str">
+      <c r="D38" s="8" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E38" s="33" t="str">
-        <f>$C$38 &amp; "_" &amp; D38</f>
-        <v>SAL_A</v>
+      <c r="E38" s="43" t="str">
+        <f>$C$38 &amp; "-" &amp; D38</f>
+        <v>SAL-A</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="42" t="str">
+      <c r="C39" s="40"/>
+      <c r="D39" s="9" t="str">
         <f t="shared" ref="D39:D42" si="8">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E39" s="31" t="str">
-        <f t="shared" ref="E39:E42" si="9">$C$38 &amp; "_" &amp; D39</f>
-        <v>SAL_B</v>
+      <c r="E39" s="42" t="str">
+        <f t="shared" ref="E39:E42" si="9">$C$38 &amp; "-" &amp; D39</f>
+        <v>SAL-B</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="42" t="str">
+      <c r="C40" s="40"/>
+      <c r="D40" s="9" t="str">
         <f t="shared" si="8"/>
         <v>C</v>
       </c>
-      <c r="E40" s="31" t="str">
+      <c r="E40" s="42" t="str">
         <f t="shared" si="9"/>
-        <v>SAL_C</v>
+        <v>SAL-C</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="42" t="str">
+      <c r="C41" s="40"/>
+      <c r="D41" s="9" t="str">
         <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="E41" s="31" t="str">
+      <c r="E41" s="42" t="str">
         <f t="shared" si="9"/>
-        <v>SAL_D</v>
+        <v>SAL-D</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="44" t="str">
+      <c r="C42" s="41"/>
+      <c r="D42" s="10" t="str">
         <f t="shared" si="8"/>
         <v>E</v>
       </c>
-      <c r="E42" s="34" t="str">
+      <c r="E42" s="44" t="str">
         <f t="shared" si="9"/>
-        <v>SAL_E</v>
+        <v>SAL-E</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="41" t="str">
+      <c r="D43" s="12" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E43" s="47" t="str">
-        <f>$C$43 &amp; "_" &amp; D43</f>
-        <v>IWC_A</v>
+      <c r="E43" s="42" t="str">
+        <f>$C$43 &amp; "-" &amp; D43</f>
+        <v>IWC-A</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="42" t="str">
+      <c r="C44" s="14"/>
+      <c r="D44" s="9" t="str">
         <f t="shared" ref="D44:D51" si="10">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E44" s="49" t="str">
-        <f t="shared" ref="E44:E51" si="11">$C$43 &amp; "_" &amp; D44</f>
-        <v>IWC_B</v>
+      <c r="E44" s="42" t="str">
+        <f t="shared" ref="E44:E51" si="11">$C$43 &amp; "-" &amp; D44</f>
+        <v>IWC-B</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="42" t="str">
+      <c r="C45" s="14"/>
+      <c r="D45" s="9" t="str">
         <f t="shared" si="10"/>
         <v>C</v>
       </c>
-      <c r="E45" s="49" t="str">
+      <c r="E45" s="42" t="str">
         <f t="shared" si="11"/>
-        <v>IWC_C</v>
+        <v>IWC-C</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="42" t="str">
+      <c r="C46" s="14"/>
+      <c r="D46" s="9" t="str">
         <f t="shared" si="10"/>
         <v>D</v>
       </c>
-      <c r="E46" s="49" t="str">
+      <c r="E46" s="42" t="str">
         <f t="shared" si="11"/>
-        <v>IWC_D</v>
+        <v>IWC-D</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="42" t="str">
+      <c r="C47" s="14"/>
+      <c r="D47" s="9" t="str">
         <f t="shared" si="10"/>
         <v>E</v>
       </c>
-      <c r="E47" s="49" t="str">
+      <c r="E47" s="42" t="str">
         <f t="shared" si="11"/>
-        <v>IWC_E</v>
+        <v>IWC-E</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="42" t="str">
+      <c r="C48" s="14"/>
+      <c r="D48" s="9" t="str">
         <f t="shared" si="10"/>
         <v>F</v>
       </c>
-      <c r="E48" s="49" t="str">
+      <c r="E48" s="42" t="str">
         <f t="shared" si="11"/>
-        <v>IWC_F</v>
+        <v>IWC-F</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="42" t="str">
+      <c r="C49" s="14"/>
+      <c r="D49" s="9" t="str">
         <f t="shared" si="10"/>
         <v>G</v>
       </c>
-      <c r="E49" s="49" t="str">
+      <c r="E49" s="42" t="str">
         <f t="shared" si="11"/>
-        <v>IWC_G</v>
+        <v>IWC-G</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="42" t="str">
+      <c r="C50" s="14"/>
+      <c r="D50" s="9" t="str">
         <f t="shared" si="10"/>
         <v>H</v>
       </c>
-      <c r="E50" s="49" t="str">
+      <c r="E50" s="42" t="str">
         <f t="shared" si="11"/>
-        <v>IWC_H</v>
+        <v>IWC-H</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="43" t="str">
+      <c r="C51" s="14"/>
+      <c r="D51" s="11" t="str">
         <f t="shared" si="10"/>
         <v>I</v>
       </c>
-      <c r="E51" s="51" t="str">
+      <c r="E51" s="42" t="str">
         <f t="shared" si="11"/>
-        <v>IWC_I</v>
+        <v>IWC-I</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="45" t="str">
+      <c r="D52" s="8" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E52" s="33" t="str">
-        <f>$C$52 &amp; "_" &amp; D52</f>
-        <v>CON_A</v>
+      <c r="E52" s="43" t="str">
+        <f>$C$52 &amp; "-" &amp; D52</f>
+        <v>CON-A</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="31"/>
+      <c r="B53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="42" t="str">
+      <c r="C53" s="40"/>
+      <c r="D53" s="9" t="str">
         <f t="shared" ref="D53:D55" si="12">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E53" s="31" t="str">
-        <f t="shared" ref="E53:E55" si="13">$C$52 &amp; "_" &amp; D53</f>
-        <v>CON_B</v>
+      <c r="E53" s="42" t="str">
+        <f t="shared" ref="E53:E55" si="13">$C$52 &amp; "-" &amp; D53</f>
+        <v>CON-B</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="31"/>
+      <c r="B54" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="42" t="str">
+      <c r="C54" s="40"/>
+      <c r="D54" s="9" t="str">
         <f t="shared" si="12"/>
         <v>C</v>
       </c>
-      <c r="E54" s="31" t="str">
+      <c r="E54" s="42" t="str">
         <f t="shared" si="13"/>
-        <v>CON_C</v>
+        <v>CON-C</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="32"/>
+      <c r="B55" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="44" t="str">
+      <c r="C55" s="41"/>
+      <c r="D55" s="10" t="str">
         <f t="shared" si="12"/>
         <v>D</v>
       </c>
-      <c r="E55" s="34" t="str">
+      <c r="E55" s="44" t="str">
         <f t="shared" si="13"/>
-        <v>CON_D</v>
+        <v>CON-D</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="41" t="str">
+      <c r="D56" s="12" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E56" s="47" t="str">
-        <f>$C$56 &amp; "_" &amp; D56</f>
-        <v>EDU_A</v>
+      <c r="E56" s="42" t="str">
+        <f>$C$56 &amp; "-" &amp; D56</f>
+        <v>EDU-A</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="42" t="str">
+      <c r="C57" s="40"/>
+      <c r="D57" s="9" t="str">
         <f t="shared" ref="D57:D60" si="14">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E57" s="49" t="str">
-        <f t="shared" ref="E57:E60" si="15">$C$56 &amp; "_" &amp; D57</f>
-        <v>EDU_B</v>
+      <c r="E57" s="42" t="str">
+        <f t="shared" ref="E57:E60" si="15">$C$56 &amp; "-" &amp; D57</f>
+        <v>EDU-B</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="42" t="str">
+      <c r="C58" s="40"/>
+      <c r="D58" s="9" t="str">
         <f t="shared" si="14"/>
         <v>C</v>
       </c>
-      <c r="E58" s="49" t="str">
+      <c r="E58" s="42" t="str">
         <f t="shared" si="15"/>
-        <v>EDU_C</v>
+        <v>EDU-C</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="42" t="str">
+      <c r="C59" s="40"/>
+      <c r="D59" s="9" t="str">
         <f t="shared" si="14"/>
         <v>D</v>
       </c>
-      <c r="E59" s="49" t="str">
+      <c r="E59" s="42" t="str">
         <f t="shared" si="15"/>
-        <v>EDU_D</v>
+        <v>EDU-D</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="43" t="str">
+      <c r="C60" s="47"/>
+      <c r="D60" s="11" t="str">
         <f t="shared" si="14"/>
         <v>E</v>
       </c>
-      <c r="E60" s="51" t="str">
+      <c r="E60" s="42" t="str">
         <f t="shared" si="15"/>
-        <v>EDU_E</v>
+        <v>EDU-E</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="45" t="str">
+      <c r="D61" s="8" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E61" s="33" t="str">
-        <f>$C$61 &amp; "_" &amp; D61</f>
-        <v>MDG_A</v>
+      <c r="E61" s="43" t="str">
+        <f>$C$61 &amp; "-" &amp; D61</f>
+        <v>MDG-A</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="3" t="s">
+      <c r="A62" s="31"/>
+      <c r="B62" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="42" t="str">
+      <c r="C62" s="40"/>
+      <c r="D62" s="9" t="str">
         <f t="shared" ref="D62:D69" si="16">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E62" s="31" t="str">
-        <f t="shared" ref="E62:E69" si="17">$C$61 &amp; "_" &amp; D62</f>
-        <v>MDG_B</v>
+      <c r="E62" s="42" t="str">
+        <f t="shared" ref="E62:E69" si="17">$C$61 &amp; "-" &amp; D62</f>
+        <v>MDG-B</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="31"/>
+      <c r="B63" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="42" t="str">
+      <c r="C63" s="40"/>
+      <c r="D63" s="9" t="str">
         <f t="shared" si="16"/>
         <v>C</v>
       </c>
-      <c r="E63" s="31" t="str">
+      <c r="E63" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>MDG_C</v>
+        <v>MDG-C</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="31"/>
+      <c r="B64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="42" t="str">
+      <c r="C64" s="40"/>
+      <c r="D64" s="9" t="str">
         <f t="shared" si="16"/>
         <v>D</v>
       </c>
-      <c r="E64" s="31" t="str">
+      <c r="E64" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>MDG_D</v>
+        <v>MDG-D</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="31"/>
+      <c r="B65" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="42" t="str">
+      <c r="C65" s="40"/>
+      <c r="D65" s="9" t="str">
         <f t="shared" si="16"/>
         <v>E</v>
       </c>
-      <c r="E65" s="31" t="str">
+      <c r="E65" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>MDG_E</v>
+        <v>MDG-E</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="3" t="s">
+      <c r="A66" s="31"/>
+      <c r="B66" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="42" t="str">
+      <c r="C66" s="40"/>
+      <c r="D66" s="9" t="str">
         <f t="shared" si="16"/>
         <v>F</v>
       </c>
-      <c r="E66" s="31" t="str">
+      <c r="E66" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>MDG_F</v>
+        <v>MDG-F</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="31"/>
+      <c r="B67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="42" t="str">
+      <c r="C67" s="40"/>
+      <c r="D67" s="9" t="str">
         <f t="shared" si="16"/>
         <v>G</v>
       </c>
-      <c r="E67" s="31" t="str">
+      <c r="E67" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>MDG_G</v>
+        <v>MDG-G</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="31"/>
+      <c r="B68" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="42" t="str">
+      <c r="C68" s="40"/>
+      <c r="D68" s="9" t="str">
         <f t="shared" si="16"/>
         <v>H</v>
       </c>
-      <c r="E68" s="31" t="str">
+      <c r="E68" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>MDG_H</v>
+        <v>MDG-H</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="32"/>
+      <c r="B69" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="44" t="str">
+      <c r="C69" s="41"/>
+      <c r="D69" s="10" t="str">
         <f t="shared" si="16"/>
         <v>I</v>
       </c>
-      <c r="E69" s="34" t="str">
+      <c r="E69" s="44" t="str">
         <f t="shared" si="17"/>
-        <v>MDG_I</v>
+        <v>MDG-I</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D70" s="41" t="str">
+      <c r="D70" s="12" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E70" s="47" t="str">
-        <f>$C$70 &amp; "_" &amp; D70</f>
-        <v>FBK_A</v>
+      <c r="E70" s="42" t="str">
+        <f>$C$70 &amp; "-" &amp; D70</f>
+        <v>FBK-A</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="42" t="str">
+      <c r="C71" s="40"/>
+      <c r="D71" s="9" t="str">
         <f t="shared" ref="D71:D72" si="18">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E71" s="49" t="str">
-        <f t="shared" ref="E71:E72" si="19">$C$70 &amp; "_" &amp; D71</f>
-        <v>FBK_B</v>
+      <c r="E71" s="42" t="str">
+        <f t="shared" ref="E71:E72" si="19">$C$70 &amp; "-" &amp; D71</f>
+        <v>FBK-B</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="12"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="50"/>
-      <c r="D72" s="43" t="str">
+      <c r="C72" s="41"/>
+      <c r="D72" s="11" t="str">
         <f t="shared" si="18"/>
         <v>C</v>
       </c>
-      <c r="E72" s="51" t="str">
+      <c r="E72" s="42" t="str">
         <f t="shared" si="19"/>
-        <v>FBK_C</v>
+        <v>FBK-C</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="45" t="str">
+      <c r="D73" s="8" t="str">
         <f>CHAR(ROW(A65))</f>
         <v>A</v>
       </c>
-      <c r="E73" s="33" t="str">
-        <f>$C$73 &amp; "_" &amp; D73</f>
-        <v>ASS_A</v>
+      <c r="E73" s="43" t="str">
+        <f>$C$73 &amp; "-" &amp; D73</f>
+        <v>ASS-A</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="42" t="str">
+      <c r="C74" s="28"/>
+      <c r="D74" s="9" t="str">
         <f t="shared" ref="D74:D77" si="20">CHAR(ROW(A66))</f>
         <v>B</v>
       </c>
-      <c r="E74" s="31" t="str">
-        <f t="shared" ref="E74:E77" si="21">$C$73 &amp; "_" &amp; D74</f>
-        <v>ASS_B</v>
+      <c r="E74" s="42" t="str">
+        <f t="shared" ref="E74:E77" si="21">$C$73 &amp; "-" &amp; D74</f>
+        <v>ASS-B</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="42" t="str">
+      <c r="C75" s="28"/>
+      <c r="D75" s="9" t="str">
         <f t="shared" si="20"/>
         <v>C</v>
       </c>
-      <c r="E75" s="31" t="str">
+      <c r="E75" s="42" t="str">
         <f t="shared" si="21"/>
-        <v>ASS_C</v>
+        <v>ASS-C</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="42" t="str">
+      <c r="C76" s="28"/>
+      <c r="D76" s="9" t="str">
         <f t="shared" si="20"/>
         <v>D</v>
       </c>
-      <c r="E76" s="31" t="str">
+      <c r="E76" s="42" t="str">
         <f t="shared" si="21"/>
-        <v>ASS_D</v>
+        <v>ASS-D</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="10"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="43" t="str">
+      <c r="C77" s="29"/>
+      <c r="D77" s="10" t="str">
         <f t="shared" si="20"/>
         <v>E</v>
       </c>
-      <c r="E77" s="32" t="str">
+      <c r="E77" s="44" t="str">
         <f t="shared" si="21"/>
-        <v>ASS_E</v>
+        <v>ASS-E</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="27">
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A21:A34"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A60"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A61:A69"/>
     <mergeCell ref="A70:A72"/>
@@ -2838,6 +2723,18 @@
     <mergeCell ref="C56:C60"/>
     <mergeCell ref="C61:C69"/>
     <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A21:A34"/>
+    <mergeCell ref="A12:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
